--- a/fastapi-ml/data/FireReason.xlsx
+++ b/fastapi-ml/data/FireReason.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRCOMNE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\electric-monitor-AS\fastapi-ml\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD15BB40-2D8B-4371-A092-23D65F0A9E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9C7BE-F596-416A-BBB4-42BF3352F317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A1AFE96-4B25-49DD-923B-4EB325C04DF9}"/>
+    <workbookView xWindow="15" yWindow="345" windowWidth="14475" windowHeight="11385" xr2:uid="{7A1AFE96-4B25-49DD-923B-4EB325C04DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>미확인 단락</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>층간 단락</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F934D87-E252-4AE9-B7CB-B8720B9380EA}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,296 +444,326 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>1738</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2091</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2204</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2153</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2294</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2415</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2919</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>3020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1934</v>
+        <v>1738</v>
       </c>
       <c r="C2">
-        <v>1995</v>
+        <v>2091</v>
       </c>
       <c r="D2">
-        <v>2268</v>
+        <v>2204</v>
       </c>
       <c r="E2">
-        <v>1903</v>
+        <v>2153</v>
       </c>
       <c r="F2">
-        <v>1732</v>
+        <v>2294</v>
       </c>
       <c r="G2">
-        <v>1754</v>
+        <v>2415</v>
       </c>
       <c r="H2">
-        <v>1630</v>
+        <v>2919</v>
       </c>
       <c r="I2">
-        <v>1611</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>882</v>
+        <v>1934</v>
       </c>
       <c r="C3">
-        <v>854</v>
+        <v>1995</v>
       </c>
       <c r="D3">
-        <v>1109</v>
+        <v>2268</v>
       </c>
       <c r="E3">
-        <v>992</v>
+        <v>1903</v>
       </c>
       <c r="F3">
-        <v>1129</v>
+        <v>1732</v>
       </c>
       <c r="G3">
-        <v>1119</v>
+        <v>1754</v>
       </c>
       <c r="H3">
-        <v>1180</v>
+        <v>1630</v>
       </c>
       <c r="I3">
-        <v>1307</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>747</v>
+        <v>882</v>
       </c>
       <c r="C4">
-        <v>795</v>
+        <v>854</v>
       </c>
       <c r="D4">
-        <v>956</v>
+        <v>1109</v>
       </c>
       <c r="E4">
-        <v>856</v>
+        <v>992</v>
       </c>
       <c r="F4">
-        <v>799</v>
+        <v>1129</v>
       </c>
       <c r="G4">
-        <v>847</v>
+        <v>1119</v>
       </c>
       <c r="H4">
-        <v>914</v>
+        <v>1180</v>
       </c>
       <c r="I4">
-        <v>901</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="C5">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="D5">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="E5">
-        <v>688</v>
+        <v>856</v>
       </c>
       <c r="F5">
-        <v>628</v>
+        <v>799</v>
       </c>
       <c r="G5">
-        <v>655</v>
+        <v>847</v>
       </c>
       <c r="H5">
-        <v>617</v>
+        <v>914</v>
       </c>
       <c r="I5">
-        <v>698</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>461</v>
+        <v>787</v>
       </c>
       <c r="C6">
-        <v>454</v>
+        <v>754</v>
       </c>
       <c r="D6">
-        <v>499</v>
+        <v>970</v>
       </c>
       <c r="E6">
-        <v>526</v>
+        <v>688</v>
       </c>
       <c r="F6">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="G6">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="H6">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="I6">
-        <v>563</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C7">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="D7">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="E7">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="F7">
-        <v>401</v>
+        <v>554</v>
       </c>
       <c r="G7">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="H7">
-        <v>357</v>
+        <v>647</v>
       </c>
       <c r="I7">
-        <v>281</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>282</v>
+        <v>478</v>
       </c>
       <c r="C8">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="D8">
-        <v>373</v>
+        <v>560</v>
       </c>
       <c r="E8">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="F8">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="G8">
-        <v>241</v>
+        <v>372</v>
       </c>
       <c r="H8">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="I8">
-        <v>230</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="C9">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="D9">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="E9">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="F9">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="G9">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="H9">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="I9">
-        <v>155</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <v>174</v>
+      </c>
+      <c r="D10">
+        <v>209</v>
+      </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>195</v>
+      </c>
+      <c r="G10">
+        <v>158</v>
+      </c>
+      <c r="H10">
+        <v>189</v>
+      </c>
+      <c r="I10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>92</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>88</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>92</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>101</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>94</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>102</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fastapi-ml/data/FireReason.xlsx
+++ b/fastapi-ml/data/FireReason.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\electric-monitor-AS\fastapi-ml\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9C7BE-F596-416A-BBB4-42BF3352F317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D126C23E-950D-4690-A4C4-8BCF5E392CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="345" windowWidth="14475" windowHeight="11385" xr2:uid="{7A1AFE96-4B25-49DD-923B-4EB325C04DF9}"/>
+    <workbookView xWindow="12675" yWindow="1665" windowWidth="14475" windowHeight="11385" xr2:uid="{7A1AFE96-4B25-49DD-923B-4EB325C04DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F934D87-E252-4AE9-B7CB-B8720B9380EA}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,322 +442,421 @@
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1">
+        <v>2013</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
         <v>2016</v>
       </c>
-      <c r="C1">
+      <c r="F1">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="G1">
         <v>2018</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="I1">
         <v>2020</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="K1">
         <v>2022</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2207</v>
+      </c>
+      <c r="C2">
+        <v>2074</v>
+      </c>
+      <c r="D2">
+        <v>1819</v>
+      </c>
+      <c r="E2">
         <v>1738</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>2091</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>2204</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>2153</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>2294</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>2415</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>2919</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>3020</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2207</v>
+      </c>
+      <c r="C3">
+        <v>2141</v>
+      </c>
+      <c r="D3">
+        <v>1951</v>
+      </c>
+      <c r="E3">
         <v>1934</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>1995</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>2268</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1903</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1732</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>1754</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>1630</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>1611</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>701</v>
+      </c>
+      <c r="C4">
+        <v>726</v>
+      </c>
+      <c r="D4">
+        <v>775</v>
+      </c>
+      <c r="E4">
         <v>882</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>854</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>1109</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>992</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>1129</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>1119</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1180</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>1307</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>757</v>
+      </c>
+      <c r="C5">
+        <v>704</v>
+      </c>
+      <c r="D5">
+        <v>748</v>
+      </c>
+      <c r="E5">
         <v>747</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>795</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>956</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>856</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>799</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>847</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>914</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>901</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1012</v>
+      </c>
+      <c r="C6">
+        <v>847</v>
+      </c>
+      <c r="D6">
+        <v>793</v>
+      </c>
+      <c r="E6">
         <v>787</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>754</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>970</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>688</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>628</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>655</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>617</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>779</v>
+      </c>
+      <c r="C7">
+        <v>671</v>
+      </c>
+      <c r="D7">
+        <v>606</v>
+      </c>
+      <c r="E7">
         <v>461</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>454</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>499</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>526</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>554</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>586</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>647</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>595</v>
+      </c>
+      <c r="C8">
+        <v>496</v>
+      </c>
+      <c r="D8">
+        <v>529</v>
+      </c>
+      <c r="E8">
         <v>478</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>505</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>560</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>454</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>401</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>372</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>357</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9">
+        <v>372</v>
+      </c>
+      <c r="D9">
+        <v>304</v>
+      </c>
+      <c r="E9">
         <v>282</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>301</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>373</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>302</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>327</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>241</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>247</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>126</v>
+      </c>
+      <c r="C10">
         <v>162</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>162</v>
+      </c>
+      <c r="F10">
         <v>174</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>209</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>180</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>195</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>158</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>189</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>94</v>
+      </c>
+      <c r="D11">
+        <v>94</v>
+      </c>
+      <c r="E11">
         <v>92</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>88</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>92</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>101</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>94</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>102</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>105</v>
       </c>
     </row>
